--- a/code_analysis.xlsx
+++ b/code_analysis.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsosolis-lemus/dev/python/4ch-py/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\python\4ch-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B21C5B7-D821-7646-B538-536A30FBD33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6267597B-DCD3-443B-AEB2-4A87AE3A50B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="640" windowWidth="18980" windowHeight="10320" xr2:uid="{6EFCDAD8-C4D7-A848-9B5C-B7C5FD65BB3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EFCDAD8-C4D7-A848-9B5C-B7C5FD65BB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>main_surfs</t>
   </si>
@@ -177,13 +178,22 @@
   </si>
   <si>
     <t>correct_fibres</t>
+  </si>
+  <si>
+    <t>CemrgApp - refactor</t>
+  </si>
+  <si>
+    <t>Docker implementation</t>
+  </si>
+  <si>
+    <t>Combination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,16 +201,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,14 +254,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,35 +599,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C29A96D-189F-AC45-9FD0-04A5E14C8333}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -567,11 +638,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -584,11 +655,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -604,11 +675,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
@@ -639,19 +710,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
@@ -670,27 +741,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I9" t="s">
@@ -706,11 +777,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I10" t="s">
@@ -729,11 +800,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
@@ -758,11 +829,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
@@ -793,11 +864,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
@@ -811,6 +882,21 @@
       </c>
       <c r="AA13" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/code_analysis.xlsx
+++ b/code_analysis.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\python\4ch-py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsosolis-lemus/dev/python/4ch-py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6267597B-DCD3-443B-AEB2-4A87AE3A50B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FAB4B3-6700-D84B-B86A-FA81DCA6D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EFCDAD8-C4D7-A848-9B5C-B7C5FD65BB3C}"/>
+    <workbookView xWindow="140" yWindow="19120" windowWidth="51060" windowHeight="9520" xr2:uid="{6EFCDAD8-C4D7-A848-9B5C-B7C5FD65BB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -602,32 +601,32 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -638,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -655,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -675,7 +674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -710,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -718,7 +717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -741,7 +740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -749,7 +748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -757,11 +756,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I9" t="s">
@@ -777,7 +776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -800,7 +799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -829,7 +828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -864,7 +863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -884,17 +883,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>49</v>
       </c>

--- a/code_analysis.xlsx
+++ b/code_analysis.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsosolis-lemus/dev/python/4ch-py/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\python\4ch-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FAB4B3-6700-D84B-B86A-FA81DCA6D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8A00A2-65DF-475E-80D8-1F27CA2D695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="19120" windowWidth="51060" windowHeight="9520" xr2:uid="{6EFCDAD8-C4D7-A848-9B5C-B7C5FD65BB3C}"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{6EFCDAD8-C4D7-A848-9B5C-B7C5FD65BB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
   <si>
     <t>main_surfs</t>
   </si>
@@ -186,6 +187,54 @@
   </si>
   <si>
     <t>Combination</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>function slot</t>
+  </si>
+  <si>
+    <t>VentricularFibres</t>
+  </si>
+  <si>
+    <t>Step5: Ventricular Fibres</t>
+  </si>
+  <si>
+    <t>ExtractSurfaces</t>
+  </si>
+  <si>
+    <t>4.1: Extract Surfaces</t>
+  </si>
+  <si>
+    <t>AtrialFibres</t>
+  </si>
+  <si>
+    <t>Step 6: Atrial Fibres</t>
+  </si>
+  <si>
+    <t>4.3: Calculate UVCs</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>Step 8: Simulation Setup</t>
+  </si>
+  <si>
+    <t>SimulationSetup</t>
+  </si>
+  <si>
+    <t>Step 7: Surface to Volume</t>
+  </si>
+  <si>
+    <t>Step 8: Define Tags</t>
+  </si>
+  <si>
+    <t>DefineTags</t>
+  </si>
+  <si>
+    <t>SurfaceToVolume</t>
   </si>
 </sst>
 </file>
@@ -275,12 +324,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -302,9 +360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,7 +400,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -448,7 +506,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -600,33 +658,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C29A96D-189F-AC45-9FD0-04A5E14C8333}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -637,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -654,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -674,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -709,7 +767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -717,7 +775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -740,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -748,7 +806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -756,7 +814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -776,7 +834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -799,7 +857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -828,7 +886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -863,7 +921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -883,17 +941,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
@@ -901,4 +959,419 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D928E41-2E5A-4B1E-B435-E649212DC573}">
+  <dimension ref="A1:AC24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/code_analysis.xlsx
+++ b/code_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\python\4ch-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8A00A2-65DF-475E-80D8-1F27CA2D695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FE884A-7B49-495E-9F59-6AAD1A01C5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{6EFCDAD8-C4D7-A848-9B5C-B7C5FD65BB3C}"/>
+    <workbookView xWindow="5745" yWindow="2310" windowWidth="14010" windowHeight="9735" activeTab="1" xr2:uid="{6EFCDAD8-C4D7-A848-9B5C-B7C5FD65BB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +293,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -317,6 +323,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -324,7 +382,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -333,10 +391,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D928E41-2E5A-4B1E-B435-E649212DC573}">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -993,318 +1083,592 @@
     <col min="22" max="22" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="14"/>
+    </row>
+    <row r="2" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="19">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="14"/>
+    </row>
+    <row r="3" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="14"/>
+    </row>
+    <row r="4" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="19">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S4" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5">
+      <c r="AC4" s="14"/>
+    </row>
+    <row r="5" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="19">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="14"/>
+    </row>
+    <row r="6" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="14"/>
+    </row>
+    <row r="7" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="19">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="14"/>
+    </row>
+    <row r="8" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="19">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="14"/>
+    </row>
+    <row r="9" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O9" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="14"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K10" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O10" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="14"/>
+    </row>
+    <row r="11" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="19">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S11" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="14"/>
+    </row>
+    <row r="12" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>8</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I12" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S12" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="14"/>
+    </row>
+    <row r="13" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="6">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I13" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="14" t="s">
         <v>43</v>
       </c>
     </row>
